--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60325.1675571805</v>
+        <v>12004708.3438789</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60325.1675571805</v>
+        <v>12004708.3438789</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1067.919897467191</v>
+        <v>69647.69519894538</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1067.919897467191</v>
+        <v>69647.69519894538</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112883840.583945</v>
+        <v>46032127.69607402</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9685.219802904056</v>
+        <v>1091374.496904471</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18212.32057158745</v>
+        <v>2003235.23901636</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26739.42134027084</v>
+        <v>2915095.981128251</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35274.25118893624</v>
+        <v>3827510.276757718</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43806.70528002592</v>
+        <v>4739451.796629609</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52339.15937111559</v>
+        <v>5651393.316501498</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>60871.61346220526</v>
+        <v>6563334.836373384</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69404.06755329492</v>
+        <v>7475276.356245271</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77935.69371898194</v>
+        <v>8386863.822374842</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>86468.11180386085</v>
+        <v>9298608.880423605</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95000.52988873977</v>
+        <v>10210353.93847237</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>103525.2154616818</v>
+        <v>11121511.80641396</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112052.2767921996</v>
+        <v>12033142.45011313</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>120584.5577721088</v>
+        <v>12944013.04749791</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>129116.838752018</v>
+        <v>13854883.64488268</v>
       </c>
     </row>
   </sheetData>
